--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03348451029027553</v>
+        <v>0.02885279194507133</v>
       </c>
       <c r="H2" t="n">
-        <v>-28.61097820495092</v>
+        <v>-38.48580805994626</v>
       </c>
       <c r="I2" t="n">
-        <v>3.80644808440692</v>
+        <v>45.46922796456855</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05218396603979818</v>
+        <v>0.08056821702439693</v>
       </c>
       <c r="H3" t="n">
-        <v>-27.92901974629338</v>
+        <v>11.27230869752647</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02795391167553754</v>
+        <v>0.02326655372472311</v>
       </c>
       <c r="H4" t="n">
-        <v>-50.76692976577149</v>
+        <v>-59.02241207121806</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04891460346677057</v>
+        <v>0.02548862673657082</v>
       </c>
       <c r="H5" t="n">
-        <v>241.7230081291772</v>
+        <v>78.06645836186327</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00579121122188828</v>
+        <v>0.0006734071341117816</v>
       </c>
       <c r="H6" t="n">
-        <v>-124.0646454373474</v>
+        <v>102.7982581357301</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01460350576159074</v>
+        <v>-0.007534890217778381</v>
       </c>
       <c r="H7" t="n">
-        <v>-55.93100305987608</v>
+        <v>77.26196302638533</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02865152118917587</v>
+        <v>0.02753499354147488</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.532178242679194</v>
+        <v>-12.09660859849627</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.00273509294709977</v>
+        <v>-0.002035713871812141</v>
       </c>
       <c r="H9" t="n">
-        <v>-116.7360285624136</v>
+        <v>-112.4565293255121</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1768148841505143</v>
+        <v>-0.1721960650130117</v>
       </c>
       <c r="H10" t="n">
-        <v>11.48569143971627</v>
+        <v>-8.573423913973745</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1480420544352397</v>
+        <v>-0.1514782972740169</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.863540206139179</v>
+        <v>6.748148005505046</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06365197108412229</v>
+        <v>-0.07317105839907158</v>
       </c>
       <c r="H12" t="n">
-        <v>5.087654770137759</v>
+        <v>-20.80340629271265</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05004724765505863</v>
+        <v>-0.1056151623608372</v>
       </c>
       <c r="H13" t="n">
-        <v>-47.84487553033156</v>
+        <v>-10.06343399299675</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0602618039266978</v>
+        <v>-0.06965070242326411</v>
       </c>
       <c r="H14" t="n">
-        <v>-31.5796404290802</v>
+        <v>20.91962414594107</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08959495563514236</v>
+        <v>-0.07777988217620216</v>
       </c>
       <c r="H15" t="n">
-        <v>-9.078564961558484</v>
+        <v>21.06856402295753</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2786443271947109</v>
+        <v>-0.2654566720188272</v>
       </c>
       <c r="H16" t="n">
-        <v>-9.730214040028656</v>
+        <v>14.00249484339512</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2968962373347649</v>
+        <v>-0.3217499245578241</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.007437255005723</v>
+        <v>-2.944551170899678</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1562208862305372</v>
+        <v>-0.1474924025994015</v>
       </c>
       <c r="H18" t="n">
-        <v>9.558454608928455</v>
+        <v>-3.437127296168478</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1428975425475459</v>
+        <v>-0.1371267223047159</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.848810186675216</v>
+        <v>11.57027342596546</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1075210246103945</v>
+        <v>0.1101981234195973</v>
       </c>
       <c r="H20" t="n">
-        <v>-24.18033496619547</v>
+        <v>-22.29254850106788</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2280240881951541</v>
+        <v>0.2524455271100058</v>
       </c>
       <c r="H21" t="n">
-        <v>23.36324629851965</v>
+        <v>36.57548193407531</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1531629440604604</v>
+        <v>0.1496693217119369</v>
       </c>
       <c r="H22" t="n">
-        <v>-16.75741946321493</v>
+        <v>-18.6561694611079</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2144045810861617</v>
+        <v>0.2230998661449408</v>
       </c>
       <c r="H23" t="n">
-        <v>28.31138494766445</v>
+        <v>33.51511736212399</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07658721063821858</v>
+        <v>0.06118214981795277</v>
       </c>
       <c r="H24" t="n">
-        <v>19.36599583424193</v>
+        <v>-4.643762588536726</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05125802735260582</v>
+        <v>0.06343975648280652</v>
       </c>
       <c r="H25" t="n">
-        <v>55.87257553642024</v>
+        <v>92.91648050274917</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02714199991517679</v>
+        <v>0.02611560130619649</v>
       </c>
       <c r="H26" t="n">
-        <v>-49.74711396182855</v>
+        <v>-51.64747106476933</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05079138815548567</v>
+        <v>0.06713068919065396</v>
       </c>
       <c r="H27" t="n">
-        <v>-21.05131040018002</v>
+        <v>4.346034554334616</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.05253755202467868</v>
+        <v>-0.07216593404326437</v>
       </c>
       <c r="H28" t="n">
-        <v>-11.37686167732521</v>
+        <v>-21.73333755438445</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.06218446089710159</v>
+        <v>-0.03763685990801253</v>
       </c>
       <c r="H29" t="n">
-        <v>17.74794746960368</v>
+        <v>28.73359454377692</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06491523759654218</v>
+        <v>0.0601682966907899</v>
       </c>
       <c r="H30" t="n">
-        <v>-15.68814869638882</v>
+        <v>-21.85347120942132</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08071828819450264</v>
+        <v>0.06488821159676733</v>
       </c>
       <c r="H31" t="n">
-        <v>31.99116220355306</v>
+        <v>6.1056998796797</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08784890558542072</v>
+        <v>0.08051929124345314</v>
       </c>
       <c r="H32" t="n">
-        <v>19.60553403378374</v>
+        <v>9.626326759763899</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1395978999766963</v>
+        <v>0.1428841050067209</v>
       </c>
       <c r="H33" t="n">
-        <v>10.61700267291292</v>
+        <v>13.22098275177266</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02433670551257434</v>
+        <v>0.028274126600045</v>
       </c>
       <c r="H34" t="n">
-        <v>-11.08871193505851</v>
+        <v>3.29619239639253</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02304340788042106</v>
+        <v>0.02427773413897202</v>
       </c>
       <c r="H35" t="n">
-        <v>-14.75121054149245</v>
+        <v>-10.18483651017033</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02220902552603572</v>
+        <v>0.01830676023038496</v>
       </c>
       <c r="H36" t="n">
-        <v>-35.0900911657613</v>
+        <v>-46.4951698933608</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0481513997263147</v>
+        <v>0.04450324024894022</v>
       </c>
       <c r="H37" t="n">
-        <v>-30.62791690011429</v>
+        <v>-35.88384764905469</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2473394953095147</v>
+        <v>-0.2606073621297693</v>
       </c>
       <c r="H38" t="n">
-        <v>2.935368542417175</v>
+        <v>-8.457061546624089</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2711131110625923</v>
+        <v>-0.3049604031598038</v>
       </c>
       <c r="H39" t="n">
-        <v>0.896119872397378</v>
+        <v>-13.49256136285653</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1416576723542547</v>
+        <v>0.135441984464556</v>
       </c>
       <c r="H40" t="n">
-        <v>13.36755012614464</v>
+        <v>8.393182718485317</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1480875242424367</v>
+        <v>0.1458512966105555</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2407282634406495</v>
+        <v>-1.272978495648825</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1271099864607844</v>
+        <v>0.1216411285526192</v>
       </c>
       <c r="H42" t="n">
-        <v>6.530656936052444</v>
+        <v>1.947216705520238</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1628184886018104</v>
+        <v>0.1357928814860413</v>
       </c>
       <c r="H43" t="n">
-        <v>16.39632785595775</v>
+        <v>-2.923845506211558</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.08652746917157324</v>
+        <v>-0.09404637823777616</v>
       </c>
       <c r="H44" t="n">
-        <v>-6.765953652814055</v>
+        <v>-1.335731546929942</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.09963252921787266</v>
+        <v>-0.1050461832824501</v>
       </c>
       <c r="H45" t="n">
-        <v>-26.5705868377124</v>
+        <v>22.58071079877065</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08576294057412252</v>
+        <v>0.1061620935247195</v>
       </c>
       <c r="H46" t="n">
-        <v>-28.32238962267042</v>
+        <v>-11.27350431822197</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1272679018776104</v>
+        <v>0.1216173737613833</v>
       </c>
       <c r="H47" t="n">
-        <v>18.0380002194517</v>
+        <v>12.79726764522696</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02430970521372318</v>
+        <v>0.03537482609568013</v>
       </c>
       <c r="H48" t="n">
-        <v>162.2060774401573</v>
+        <v>281.5551981864367</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.002678751634703723</v>
+        <v>0.05611832460971769</v>
       </c>
       <c r="H49" t="n">
-        <v>-95.41654328434647</v>
+        <v>-3.979186248043509</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01762488412964423</v>
+        <v>0.005135224572653586</v>
       </c>
       <c r="H50" t="n">
-        <v>-48.91383434520645</v>
+        <v>-85.11542366670622</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0326218075310143</v>
+        <v>0.04361129045349277</v>
       </c>
       <c r="H51" t="n">
-        <v>-17.00950532800683</v>
+        <v>10.94794684746899</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01021308849826312</v>
+        <v>-0.01383940310039319</v>
       </c>
       <c r="H52" t="n">
-        <v>65.83656170761863</v>
+        <v>-124.7193908723374</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>0.002219167541143014</v>
+        <v>-0.02160018246225759</v>
       </c>
       <c r="H53" t="n">
-        <v>-146.4779945435919</v>
+        <v>-352.3917838597741</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07101871610701353</v>
+        <v>0.08396918984171063</v>
       </c>
       <c r="H54" t="n">
-        <v>60.83248865672506</v>
+        <v>90.1607704704425</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0981846932896815</v>
+        <v>0.09288022529597463</v>
       </c>
       <c r="H55" t="n">
-        <v>23.86312600488343</v>
+        <v>17.17137023848399</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.08752814491897108</v>
+        <v>0.0859747730805339</v>
       </c>
       <c r="H56" t="n">
-        <v>-12.53535802849098</v>
+        <v>-14.08760287297282</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.08278835913246665</v>
+        <v>0.09717260351507784</v>
       </c>
       <c r="H57" t="n">
-        <v>-24.99916553336171</v>
+        <v>-11.96798164262056</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01947938038093453</v>
+        <v>0.02104860010793163</v>
       </c>
       <c r="H58" t="n">
-        <v>3109.569253272005</v>
+        <v>3368.125700597571</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02787571049392609</v>
+        <v>0.01668859777367249</v>
       </c>
       <c r="H59" t="n">
-        <v>344.6741561833012</v>
+        <v>166.2170040296304</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.002727568556804612</v>
+        <v>0.01847952031659838</v>
       </c>
       <c r="H60" t="n">
-        <v>-68.19425008104915</v>
+        <v>115.4867933000604</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.009433024794279621</v>
+        <v>0.001168427883987733</v>
       </c>
       <c r="H61" t="n">
-        <v>-166.5612133162562</v>
+        <v>108.244648914517</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.06253122449326018</v>
+        <v>-0.04332446632578673</v>
       </c>
       <c r="H62" t="n">
-        <v>29.71178852311481</v>
+        <v>10.12979420332691</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06080120029272406</v>
+        <v>-0.06742655033776543</v>
       </c>
       <c r="H63" t="n">
-        <v>-24.57322013296425</v>
+        <v>16.3541583877442</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.05457131246430507</v>
+        <v>0.06750061848720476</v>
       </c>
       <c r="H64" t="n">
-        <v>-11.61357416656882</v>
+        <v>9.327376238797445</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08119012831956797</v>
+        <v>0.08166721047431981</v>
       </c>
       <c r="H65" t="n">
-        <v>21.85294616072442</v>
+        <v>22.56896752096172</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1942822099292225</v>
+        <v>0.1963244996889367</v>
       </c>
       <c r="H66" t="n">
-        <v>-8.844140717204478</v>
+        <v>-7.885912591124258</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2210436888512601</v>
+        <v>0.2251365569613983</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.2776927269103693</v>
+        <v>1.568775966353591</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.08118301524454194</v>
+        <v>-0.0801888839157327</v>
       </c>
       <c r="H68" t="n">
-        <v>-5.743951810834455</v>
+        <v>6.898169723933003</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.06406145946746701</v>
+        <v>-0.06946218423878477</v>
       </c>
       <c r="H69" t="n">
-        <v>-16.61739160193373</v>
+        <v>9.587790303180647</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1688102641119901</v>
+        <v>-0.1496719615524446</v>
       </c>
       <c r="H70" t="n">
-        <v>21.58457502415997</v>
+        <v>-7.800327984285474</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1438694347729423</v>
+        <v>-0.1236216406384878</v>
       </c>
       <c r="H71" t="n">
-        <v>-1.773268055112415</v>
+        <v>15.59743195802351</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1404802202048895</v>
+        <v>0.1550515835004075</v>
       </c>
       <c r="H72" t="n">
-        <v>-15.06828892182818</v>
+        <v>-6.258715477075438</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1574594994145733</v>
+        <v>0.1468652037747939</v>
       </c>
       <c r="H73" t="n">
-        <v>9.300862179292601</v>
+        <v>1.946808267553594</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.04536475413624671</v>
+        <v>-0.05655435778490124</v>
       </c>
       <c r="H74" t="n">
-        <v>71.55597086990231</v>
+        <v>-113.8717147584054</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.03590380008939282</v>
+        <v>-0.01956698581382642</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.261196863463707</v>
+        <v>46.73394544111274</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01895082784406019</v>
+        <v>0.006861684849333881</v>
       </c>
       <c r="H76" t="n">
-        <v>-21.40377160252893</v>
+        <v>-71.54200576104395</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.007046692733096617</v>
+        <v>0.009284910283785848</v>
       </c>
       <c r="H77" t="n">
-        <v>-26.14300729867307</v>
+        <v>197.3159433845069</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07510251617462103</v>
+        <v>0.07331213694045914</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.9352149814713634</v>
+        <v>-3.296834045225466</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09808941820351516</v>
+        <v>0.08707010883786073</v>
       </c>
       <c r="H79" t="n">
-        <v>22.51396309214906</v>
+        <v>8.750814266821644</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.06559798357949856</v>
+        <v>0.08653914749845651</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5698011373517069</v>
+        <v>32.67518877265842</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03471060911518117</v>
+        <v>0.0477683636573208</v>
       </c>
       <c r="H81" t="n">
-        <v>-6.60389458580088</v>
+        <v>28.53070693166504</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03833878533018292</v>
+        <v>0.06091067941810767</v>
       </c>
       <c r="H82" t="n">
-        <v>-33.9318790739163</v>
+        <v>4.965613772778709</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07925781398776896</v>
+        <v>0.05703435449301442</v>
       </c>
       <c r="H83" t="n">
-        <v>23.81989062170056</v>
+        <v>-10.89853252710016</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.001567053300117322</v>
+        <v>-0.01225544177263165</v>
       </c>
       <c r="H84" t="n">
-        <v>-81.19481920475577</v>
+        <v>-47.06953378208135</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.02868480348899212</v>
+        <v>-0.009014933255406499</v>
       </c>
       <c r="H85" t="n">
-        <v>640.939291952927</v>
+        <v>-132.8591257676586</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0262513460315817</v>
+        <v>0.02616740697742751</v>
       </c>
       <c r="H86" t="n">
-        <v>3.81296759624706</v>
+        <v>3.481024148528791</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0244029056966951</v>
+        <v>0.01357053348709759</v>
       </c>
       <c r="H87" t="n">
-        <v>-17.56434912894121</v>
+        <v>-54.15727231089966</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.00583463926964472</v>
+        <v>-0.01710543279660426</v>
       </c>
       <c r="H88" t="n">
-        <v>-69.56475648800343</v>
+        <v>10.77288783708407</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01247806538658897</v>
+        <v>-0.01308043338245179</v>
       </c>
       <c r="H89" t="n">
-        <v>-22.36923584315408</v>
+        <v>18.62167671650316</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07314999649999365</v>
+        <v>-0.03971864210169976</v>
       </c>
       <c r="H90" t="n">
-        <v>169.0394434339334</v>
+        <v>-46.08177547887956</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03298988898963614</v>
+        <v>-0.03027397634489734</v>
       </c>
       <c r="H91" t="n">
-        <v>-1374.762580867742</v>
+        <v>-1269.816977276708</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02505392621656911</v>
+        <v>-0.02526534169929223</v>
       </c>
       <c r="H92" t="n">
-        <v>12.94899575258408</v>
+        <v>-13.90210650471569</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04837022151431039</v>
+        <v>-0.02698429679211762</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7923382683995632</v>
+        <v>43.77097550811611</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.004144464155785657</v>
+        <v>-0.006298286420942946</v>
       </c>
       <c r="H94" t="n">
-        <v>-128.7104509673439</v>
+        <v>-143.63088608556</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01417147073197771</v>
+        <v>0.0141988514553859</v>
       </c>
       <c r="H95" t="n">
-        <v>-48.60021265657764</v>
+        <v>-48.5009030374769</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1465776246068778</v>
+        <v>-0.1303257600766596</v>
       </c>
       <c r="H96" t="n">
-        <v>24.78771123350468</v>
+        <v>-10.95181381435832</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1323975353222</v>
+        <v>-0.1198258931577706</v>
       </c>
       <c r="H97" t="n">
-        <v>-18.42931426387501</v>
+        <v>26.17475657657447</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1077754089186045</v>
+        <v>0.09428294652439131</v>
       </c>
       <c r="H98" t="n">
-        <v>-4.595798895657898</v>
+        <v>-16.53950301671998</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1002309904094325</v>
+        <v>0.1097606587542195</v>
       </c>
       <c r="H99" t="n">
-        <v>-4.57489527012256</v>
+        <v>4.497843571702949</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0001851798847655509</v>
+        <v>-0.004804800640580334</v>
       </c>
       <c r="H100" t="n">
-        <v>-99.28575205296406</v>
+        <v>-118.5323530025759</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02192105094464926</v>
+        <v>0.02932399752988252</v>
       </c>
       <c r="H101" t="n">
-        <v>65.50060698750775</v>
+        <v>121.3917299289132</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0117202311139473</v>
+        <v>0.01369100419208972</v>
       </c>
       <c r="H102" t="n">
-        <v>-1475.016938129033</v>
+        <v>1506.227938774725</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01527500008809643</v>
+        <v>0.01653623963537404</v>
       </c>
       <c r="H103" t="n">
-        <v>-17.86274012551756</v>
+        <v>-11.08075911987126</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06937071739630009</v>
+        <v>0.07633827660251095</v>
       </c>
       <c r="H104" t="n">
-        <v>48.03934378721814</v>
+        <v>62.908339400936</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06923346916396271</v>
+        <v>0.06741709738887292</v>
       </c>
       <c r="H105" t="n">
-        <v>55.7416594114899</v>
+        <v>51.65570564120093</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2970868822614872</v>
+        <v>-0.2927686293765209</v>
       </c>
       <c r="H106" t="n">
-        <v>-6.463560131360239</v>
+        <v>7.82314221131462</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.346197440779061</v>
+        <v>-0.3573306523282171</v>
       </c>
       <c r="H107" t="n">
-        <v>13.18893751120998</v>
+        <v>-16.82893087309253</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2401814826924701</v>
+        <v>0.2307320046058892</v>
       </c>
       <c r="H108" t="n">
-        <v>9.185163250077313</v>
+        <v>4.889483183715096</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2634254058735727</v>
+        <v>0.2410483691474007</v>
       </c>
       <c r="H109" t="n">
-        <v>5.673176628436121</v>
+        <v>-3.303378030535004</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.007276232653865804</v>
+        <v>0.04553475590321144</v>
       </c>
       <c r="H110" t="n">
-        <v>-290.3626261839977</v>
+        <v>1091.291720417615</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.00673077368405321</v>
+        <v>0.01687583704371108</v>
       </c>
       <c r="H111" t="n">
-        <v>-68.88035011709917</v>
+        <v>-21.97477363925796</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.06023532949437658</v>
+        <v>0.08223414333797538</v>
       </c>
       <c r="H112" t="n">
-        <v>41.18936398889797</v>
+        <v>92.75376250983322</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08192324829643505</v>
+        <v>0.08987795472539145</v>
       </c>
       <c r="H113" t="n">
-        <v>143.135967792109</v>
+        <v>166.7443486403399</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_trimester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 250/DAX30_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04690428506837689</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02885279194507133</v>
+        <v>0.0264076370876394</v>
       </c>
       <c r="H2" t="n">
-        <v>-38.48580805994626</v>
+        <v>-43.69888156456826</v>
       </c>
       <c r="I2" t="n">
-        <v>45.46922796456855</v>
+        <v>5.121203551543362</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.07240634976255141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08056821702439693</v>
+        <v>0.04395659777724698</v>
       </c>
       <c r="H3" t="n">
-        <v>11.27230869752647</v>
+        <v>-39.29179150530614</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.05677872930236846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02326655372472311</v>
+        <v>0.01412911330220495</v>
       </c>
       <c r="H4" t="n">
-        <v>-59.02241207121806</v>
+        <v>-75.11548166750613</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.01431410888443309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02548862673657082</v>
+        <v>0.04616145502360148</v>
       </c>
       <c r="H5" t="n">
-        <v>78.06645836186327</v>
+        <v>222.4891985682957</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.02406522563137596</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0006734071341117816</v>
+        <v>0.0006822455464948248</v>
       </c>
       <c r="H6" t="n">
-        <v>102.7982581357301</v>
+        <v>102.8349850400128</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.03313782199633989</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.007534890217778381</v>
+        <v>-0.01982133236939707</v>
       </c>
       <c r="H7" t="n">
-        <v>77.26196302638533</v>
+        <v>40.18516856181327</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>0.03132415382667915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02753499354147488</v>
+        <v>0.02608765721766785</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.09660859849627</v>
+        <v>-16.71712071772331</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>0.01634254468973803</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.002035713871812141</v>
+        <v>-0.02197591579226411</v>
       </c>
       <c r="H9" t="n">
-        <v>-112.4565293255121</v>
+        <v>-234.4705871054674</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.1585987240758367</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1721960650130117</v>
+        <v>-0.1892906097524114</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.573423913973745</v>
+        <v>-19.35191210107016</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.1624399880904878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1514782972740169</v>
+        <v>-0.1456416690265109</v>
       </c>
       <c r="H11" t="n">
-        <v>6.748148005505046</v>
+        <v>10.34124618047825</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.06057036026101323</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07317105839907158</v>
+        <v>-0.06798087424647825</v>
       </c>
       <c r="H12" t="n">
-        <v>-20.80340629271265</v>
+        <v>-12.23455491024193</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.09595844735096801</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1056151623608372</v>
+        <v>-0.06567066666883917</v>
       </c>
       <c r="H13" t="n">
-        <v>-10.06343399299675</v>
+        <v>31.56343346339409</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0880758363513635</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06965070242326411</v>
+        <v>-0.05805142575007848</v>
       </c>
       <c r="H14" t="n">
-        <v>20.91962414594107</v>
+        <v>34.08927107033961</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.09854107075769501</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07777988217620216</v>
+        <v>-0.0875084419858185</v>
       </c>
       <c r="H15" t="n">
-        <v>21.06856402295753</v>
+        <v>11.19597005293854</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.3086795035919008</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2654566720188272</v>
+        <v>-0.2283851015638544</v>
       </c>
       <c r="H16" t="n">
-        <v>14.00249484339512</v>
+        <v>26.01222338824351</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.3125468234095096</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3217499245578241</v>
+        <v>-0.2798077536336294</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.944551170899678</v>
+        <v>10.47493281766116</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1425913561743559</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1474924025994015</v>
+        <v>-0.1713327527875105</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.437127296168478</v>
+        <v>-20.15647889484311</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1550685811404286</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1371267223047159</v>
+        <v>-0.1597320876840363</v>
       </c>
       <c r="H19" t="n">
-        <v>11.57027342596546</v>
+        <v>-3.007383255402635</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1418115268149177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1101981234195973</v>
+        <v>0.1482433788739264</v>
       </c>
       <c r="H20" t="n">
-        <v>-22.29254850106788</v>
+        <v>4.535493131953299</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1848395652975698</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2524455271100058</v>
+        <v>0.2721803218917036</v>
       </c>
       <c r="H21" t="n">
-        <v>36.57548193407531</v>
+        <v>47.25219757659866</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1839959105938305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1496693217119369</v>
+        <v>0.1571445425499933</v>
       </c>
       <c r="H22" t="n">
-        <v>-18.6561694611079</v>
+        <v>-14.59345914655211</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.167097082751942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2230998661449408</v>
+        <v>0.206803711220903</v>
       </c>
       <c r="H23" t="n">
-        <v>33.51511736212399</v>
+        <v>23.76261022336701</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.06416166522379767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06118214981795277</v>
+        <v>0.06049380417644935</v>
       </c>
       <c r="H24" t="n">
-        <v>-4.643762588536726</v>
+        <v>-5.716592664100461</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.03288457073106435</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06343975648280652</v>
+        <v>0.08185319332559175</v>
       </c>
       <c r="H25" t="n">
-        <v>92.91648050274917</v>
+        <v>148.9106334852329</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.05401082814340269</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02611560130619649</v>
+        <v>0.02907015136670512</v>
       </c>
       <c r="H26" t="n">
-        <v>-51.64747106476933</v>
+        <v>-46.17717897322043</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.06433468169381938</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06713068919065396</v>
+        <v>0.0619641786936579</v>
       </c>
       <c r="H27" t="n">
-        <v>4.346034554334616</v>
+        <v>-3.684642463054603</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.05928198100296411</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.07216593404326437</v>
+        <v>-0.07521502629849973</v>
       </c>
       <c r="H28" t="n">
-        <v>-21.73333755438445</v>
+        <v>-26.87670861528558</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.05281150307367723</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03763685990801253</v>
+        <v>-0.05228764471049608</v>
       </c>
       <c r="H29" t="n">
-        <v>28.73359454377692</v>
+        <v>0.9919398856160431</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.07699420258580157</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0601682966907899</v>
+        <v>0.05574831603057299</v>
       </c>
       <c r="H30" t="n">
-        <v>-21.85347120942132</v>
+        <v>-27.59413805416373</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06115431279408023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06488821159676733</v>
+        <v>0.06426051636641603</v>
       </c>
       <c r="H31" t="n">
-        <v>6.1056998796797</v>
+        <v>5.079287838283878</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.07344886362917534</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08051929124345314</v>
+        <v>0.0740875893889634</v>
       </c>
       <c r="H32" t="n">
-        <v>9.626326759763899</v>
+        <v>0.8696196622085574</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1261993152982801</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1428841050067209</v>
+        <v>0.1657009945168549</v>
       </c>
       <c r="H33" t="n">
-        <v>13.22098275177266</v>
+        <v>31.30102498988214</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02737189623751556</v>
       </c>
       <c r="G34" t="n">
-        <v>0.028274126600045</v>
+        <v>0.02523273925989736</v>
       </c>
       <c r="H34" t="n">
-        <v>3.29619239639253</v>
+        <v>-7.815158142702212</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.02703077430986488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02427773413897202</v>
+        <v>0.02690951672163797</v>
       </c>
       <c r="H35" t="n">
-        <v>-10.18483651017033</v>
+        <v>-0.4485908795541173</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.03421515439615114</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01830676023038496</v>
+        <v>0.02546270943425689</v>
       </c>
       <c r="H36" t="n">
-        <v>-46.4951698933608</v>
+        <v>-25.58060928370035</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.06941034141498056</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04450324024894022</v>
+        <v>0.05110253390147811</v>
       </c>
       <c r="H37" t="n">
-        <v>-35.88384764905469</v>
+        <v>-26.37619573724089</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.2402862095039686</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2606073621297693</v>
+        <v>-0.2543737736779206</v>
       </c>
       <c r="H38" t="n">
-        <v>-8.457061546624089</v>
+        <v>-5.86282675274351</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2687051904527817</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.3049604031598038</v>
+        <v>-0.2960969036090658</v>
       </c>
       <c r="H39" t="n">
-        <v>-13.49256136285653</v>
+        <v>-10.19396503287775</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1249543385180605</v>
       </c>
       <c r="G40" t="n">
-        <v>0.135441984464556</v>
+        <v>0.1469241773944789</v>
       </c>
       <c r="H40" t="n">
-        <v>8.393182718485317</v>
+        <v>17.58229376985015</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1477318918246991</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1458512966105555</v>
+        <v>0.148707929497541</v>
       </c>
       <c r="H41" t="n">
-        <v>-1.272978495648825</v>
+        <v>0.6606817666696418</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1193177533271809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1216411285526192</v>
+        <v>0.12507411758387</v>
       </c>
       <c r="H42" t="n">
-        <v>1.947216705520238</v>
+        <v>4.824398797473646</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1398828396058171</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1357928814860413</v>
+        <v>0.1450952461451954</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.923845506211558</v>
+        <v>3.726265890845938</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.09280672947451118</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.09404637823777616</v>
+        <v>-0.08778681040529204</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.335731546929942</v>
+        <v>5.409003310043194</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.135684768442413</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1050461832824501</v>
+        <v>-0.1106717548123809</v>
       </c>
       <c r="H45" t="n">
-        <v>22.58071079877065</v>
+        <v>18.43465107923891</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.1196509483542268</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1061620935247195</v>
+        <v>0.09930681842245215</v>
       </c>
       <c r="H46" t="n">
-        <v>-11.27350431822197</v>
+        <v>-17.00289902554372</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.1078194324209143</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1216173737613833</v>
+        <v>0.1227170622268029</v>
       </c>
       <c r="H47" t="n">
-        <v>12.79726764522696</v>
+        <v>13.81720295811799</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.009271221113961911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03537482609568013</v>
+        <v>0.01635399047559672</v>
       </c>
       <c r="H48" t="n">
-        <v>281.5551981864367</v>
+        <v>76.39521563096558</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.0584439169143932</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05611832460971769</v>
+        <v>0.03854729210595951</v>
       </c>
       <c r="H49" t="n">
-        <v>-3.979186248043509</v>
+        <v>-34.04396190210461</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.03450030728229148</v>
       </c>
       <c r="G50" t="n">
-        <v>0.005135224572653586</v>
+        <v>0.02838405345238899</v>
       </c>
       <c r="H50" t="n">
-        <v>-85.11542366670622</v>
+        <v>-17.7281140711517</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.03930788418595026</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04361129045349277</v>
+        <v>0.04027312377787191</v>
       </c>
       <c r="H51" t="n">
-        <v>10.94794684746899</v>
+        <v>2.455587757803171</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.006158526438982439</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01383940310039319</v>
+        <v>-0.001086240414434836</v>
       </c>
       <c r="H52" t="n">
-        <v>-124.7193908723374</v>
+        <v>82.36200777577058</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.004774662854830472</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02160018246225759</v>
+        <v>-0.02373908488978885</v>
       </c>
       <c r="H53" t="n">
-        <v>-352.3917838597741</v>
+        <v>-397.1887149219822</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.04415694658471229</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08396918984171063</v>
+        <v>0.06438631014674077</v>
       </c>
       <c r="H54" t="n">
-        <v>90.1607704704425</v>
+        <v>45.81241486709173</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.07926870284689123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09288022529597463</v>
+        <v>0.1191536414399581</v>
       </c>
       <c r="H55" t="n">
-        <v>17.17137023848399</v>
+        <v>50.31612371670224</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1000726041358321</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0859747730805339</v>
+        <v>0.09005179523000693</v>
       </c>
       <c r="H56" t="n">
-        <v>-14.08760287297282</v>
+        <v>-10.01353866261297</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1103832506947538</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09717260351507784</v>
+        <v>0.09552168171268043</v>
       </c>
       <c r="H57" t="n">
-        <v>-11.96798164262056</v>
+        <v>-13.46360873459917</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.000606915721200788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02104860010793163</v>
+        <v>0.01732973389814841</v>
       </c>
       <c r="H58" t="n">
-        <v>3368.125700597571</v>
+        <v>2755.377327161897</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.006268794825673501</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01668859777367249</v>
+        <v>0.01744274939956166</v>
       </c>
       <c r="H59" t="n">
-        <v>166.2170040296304</v>
+        <v>178.2472530146599</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.008575708995245046</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01847952031659838</v>
+        <v>0.01486052889371716</v>
       </c>
       <c r="H60" t="n">
-        <v>115.4867933000604</v>
+        <v>73.28630089893261</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>-0.01417195439250775</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001168427883987733</v>
+        <v>0.004577668719385034</v>
       </c>
       <c r="H61" t="n">
-        <v>108.244648914517</v>
+        <v>132.300899315659</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.04820781920073289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.04332446632578673</v>
+        <v>-0.04661932223781668</v>
       </c>
       <c r="H62" t="n">
-        <v>10.12979420332691</v>
+        <v>3.295102307577642</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.08060956652253479</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06742655033776543</v>
+        <v>-0.05966515194240923</v>
       </c>
       <c r="H63" t="n">
-        <v>16.3541583877442</v>
+        <v>25.98254212701969</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.06174173460430174</v>
       </c>
       <c r="G64" t="n">
-        <v>0.06750061848720476</v>
+        <v>0.06131642846400526</v>
       </c>
       <c r="H64" t="n">
-        <v>9.327376238797445</v>
+        <v>-0.6888470870185929</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.06662959811614069</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08166721047431981</v>
+        <v>0.0753911679947655</v>
       </c>
       <c r="H65" t="n">
-        <v>22.56896752096172</v>
+        <v>13.14966640403968</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.2131318946009768</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1963244996889367</v>
+        <v>0.1734620289782072</v>
       </c>
       <c r="H66" t="n">
-        <v>-7.885912591124258</v>
+        <v>-18.61282455966485</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.2216592203847949</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2251365569613983</v>
+        <v>0.2359365223481357</v>
       </c>
       <c r="H67" t="n">
-        <v>1.568775966353591</v>
+        <v>6.441104474948413</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.08613029805961427</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0801888839157327</v>
+        <v>-0.0817072883201678</v>
       </c>
       <c r="H68" t="n">
-        <v>6.898169723933003</v>
+        <v>5.135254189397004</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.07682832271405972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.06946218423878477</v>
+        <v>-0.07372260242961576</v>
       </c>
       <c r="H69" t="n">
-        <v>9.587790303180647</v>
+        <v>4.042415836673744</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.1388418424610572</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1496719615524446</v>
+        <v>-0.1585229812461266</v>
       </c>
       <c r="H70" t="n">
-        <v>-7.800327984285474</v>
+        <v>-14.17522155872399</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.1464666816500254</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1236216406384878</v>
+        <v>-0.1388684224983785</v>
       </c>
       <c r="H71" t="n">
-        <v>15.59743195802351</v>
+        <v>5.187704852768197</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.1654037325064491</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1550515835004075</v>
+        <v>0.1437975890696634</v>
       </c>
       <c r="H72" t="n">
-        <v>-6.258715477075438</v>
+        <v>-13.0626698136593</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.1440606197197999</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1468652037747939</v>
+        <v>0.164873506996131</v>
       </c>
       <c r="H73" t="n">
-        <v>1.946808267553594</v>
+        <v>14.4473120529486</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>-0.02644312168572005</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.05655435778490124</v>
+        <v>-0.0654743511480864</v>
       </c>
       <c r="H74" t="n">
-        <v>-113.8717147584054</v>
+        <v>-147.604469420281</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>-0.03673443805039947</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.01956698581382642</v>
+        <v>-0.05522422477573205</v>
       </c>
       <c r="H75" t="n">
-        <v>46.73394544111274</v>
+        <v>-50.33365884068971</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.0241116249856462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.006861684849333881</v>
+        <v>0.02203422025254091</v>
       </c>
       <c r="H76" t="n">
-        <v>-71.54200576104395</v>
+        <v>-8.615780704709803</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.009540996018607206</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009284910283785848</v>
+        <v>0.001074881610126443</v>
       </c>
       <c r="H77" t="n">
-        <v>197.3159433845069</v>
+        <v>111.2659266184596</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.07581151683776853</v>
       </c>
       <c r="G78" t="n">
-        <v>0.07331213694045914</v>
+        <v>0.04931233530993</v>
       </c>
       <c r="H78" t="n">
-        <v>-3.296834045225466</v>
+        <v>-34.9540315682444</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.08006386841778766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08707010883786073</v>
+        <v>0.07784632124905989</v>
       </c>
       <c r="H79" t="n">
-        <v>8.750814266821644</v>
+        <v>-2.769722738297141</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.06522632324778001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.08653914749845651</v>
+        <v>0.0559914734285499</v>
       </c>
       <c r="H80" t="n">
-        <v>32.67518877265842</v>
+        <v>-14.15816400404636</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03716494275777807</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0477683636573208</v>
+        <v>0.04038351344065729</v>
       </c>
       <c r="H81" t="n">
-        <v>28.53070693166504</v>
+        <v>8.660233123070325</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.05802917472569856</v>
       </c>
       <c r="G82" t="n">
-        <v>0.06091067941810767</v>
+        <v>0.05502349324296305</v>
       </c>
       <c r="H82" t="n">
-        <v>4.965613772778709</v>
+        <v>-5.179604047349003</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.06401056695318895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05703435449301442</v>
+        <v>0.08410666914173756</v>
       </c>
       <c r="H83" t="n">
-        <v>-10.89853252710016</v>
+        <v>31.39497608769022</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>-0.008333093508537951</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.01225544177263165</v>
+        <v>-0.0103858920314943</v>
       </c>
       <c r="H84" t="n">
-        <v>-47.06953378208135</v>
+        <v>-24.63429122513847</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>-0.003871410762059371</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.009014933255406499</v>
+        <v>-0.005672601454185817</v>
       </c>
       <c r="H85" t="n">
-        <v>-132.8591257676586</v>
+        <v>-46.52543485642207</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.0252871550052199</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02616740697742751</v>
+        <v>0.01587472401282867</v>
       </c>
       <c r="H86" t="n">
-        <v>3.481024148528791</v>
+        <v>-37.22218252883043</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.0296023691677582</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01357053348709759</v>
+        <v>0.04242567203576333</v>
       </c>
       <c r="H87" t="n">
-        <v>-54.15727231089966</v>
+        <v>43.3185019595384</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>-0.01917066728033536</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01710543279660426</v>
+        <v>-0.009395760879725313</v>
       </c>
       <c r="H88" t="n">
-        <v>10.77288783708407</v>
+        <v>50.98886886757889</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>-0.01607360886127331</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01308043338245179</v>
+        <v>-0.03366808451010921</v>
       </c>
       <c r="H89" t="n">
-        <v>18.62167671650316</v>
+        <v>-109.4618874994953</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02718932048265135</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.03971864210169976</v>
+        <v>-0.02562204114765256</v>
       </c>
       <c r="H90" t="n">
-        <v>-46.08177547887956</v>
+        <v>5.76431961953158</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>0.002587924173862998</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03027397634489734</v>
+        <v>-0.04104921332549968</v>
       </c>
       <c r="H91" t="n">
-        <v>-1269.816977276708</v>
+        <v>-1686.183001035361</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>-0.02218162813191362</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02526534169929223</v>
+        <v>-0.04340303340670393</v>
       </c>
       <c r="H92" t="n">
-        <v>-13.90210650471569</v>
+        <v>-95.67108937444587</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>-0.0479899785492678</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02698429679211762</v>
+        <v>-0.01689321784824122</v>
       </c>
       <c r="H93" t="n">
-        <v>43.77097550811611</v>
+        <v>64.79844676134167</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.01443538508154987</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.006298286420942946</v>
+        <v>-0.01430325902409819</v>
       </c>
       <c r="H94" t="n">
-        <v>-143.63088608556</v>
+        <v>-199.0847070812087</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.02757106880091253</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0141988514553859</v>
+        <v>0.01951576627515987</v>
       </c>
       <c r="H95" t="n">
-        <v>-48.5009030374769</v>
+        <v>-29.21650438696831</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.1174615858869304</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1303257600766596</v>
+        <v>-0.1664203637157938</v>
       </c>
       <c r="H96" t="n">
-        <v>-10.95181381435832</v>
+        <v>-41.68067156524821</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.1623101903917984</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1198258931577706</v>
+        <v>-0.1726078697824799</v>
       </c>
       <c r="H97" t="n">
-        <v>26.17475657657447</v>
+        <v>-6.344444157094566</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1129671520447325</v>
       </c>
       <c r="G98" t="n">
-        <v>0.09428294652439131</v>
+        <v>0.09876995530148598</v>
       </c>
       <c r="H98" t="n">
-        <v>-16.53950301671998</v>
+        <v>-12.56754418100647</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1050362907047985</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1097606587542195</v>
+        <v>0.1175884501032585</v>
       </c>
       <c r="H99" t="n">
-        <v>4.497843571702949</v>
+        <v>11.95030718833882</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02592655471171142</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.004804800640580334</v>
+        <v>0.007307732700821847</v>
       </c>
       <c r="H100" t="n">
-        <v>-118.5323530025759</v>
+        <v>-71.81371461777437</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.01324529942437244</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02932399752988252</v>
+        <v>0.02210584003364128</v>
       </c>
       <c r="H101" t="n">
-        <v>121.3917299289132</v>
+        <v>66.89573655816882</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>0.0008523699446128174</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01369100419208972</v>
+        <v>-0.01200174748453063</v>
       </c>
       <c r="H102" t="n">
-        <v>1506.227938774725</v>
+        <v>-1508.0444248867</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>0.01859691948750035</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01653623963537404</v>
+        <v>0.02079486957180699</v>
       </c>
       <c r="H103" t="n">
-        <v>-11.08075911987126</v>
+        <v>11.8188933698614</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.04685964934835764</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07633827660251095</v>
+        <v>0.07588539784649107</v>
       </c>
       <c r="H104" t="n">
-        <v>62.908339400936</v>
+        <v>61.94188155859672</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.04445404615924812</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06741709738887292</v>
+        <v>0.05775707909153718</v>
       </c>
       <c r="H105" t="n">
-        <v>51.65570564120093</v>
+        <v>29.92535906547965</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3176161960821992</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.2927686293765209</v>
+        <v>-0.320189733157099</v>
       </c>
       <c r="H106" t="n">
-        <v>7.82314221131462</v>
+        <v>-0.8102663235201442</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3058580179222677</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3573306523282171</v>
+        <v>-0.2976308696156009</v>
       </c>
       <c r="H107" t="n">
-        <v>-16.82893087309253</v>
+        <v>2.689858635243512</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.219976300390154</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2307320046058892</v>
+        <v>0.2277455538351404</v>
       </c>
       <c r="H108" t="n">
-        <v>4.889483183715096</v>
+        <v>3.531859309937795</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.249283133410306</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2410483691474007</v>
+        <v>0.2388302245972644</v>
       </c>
       <c r="H109" t="n">
-        <v>-3.303378030535004</v>
+        <v>-4.193187348875582</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.003822301047072578</v>
       </c>
       <c r="G110" t="n">
-        <v>0.04553475590321144</v>
+        <v>0.03485392180852952</v>
       </c>
       <c r="H110" t="n">
-        <v>1091.291720417615</v>
+        <v>811.8570562416431</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.02162869347624484</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01687583704371108</v>
+        <v>0.05164289658385874</v>
       </c>
       <c r="H111" t="n">
-        <v>-21.97477363925796</v>
+        <v>138.7703013156066</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.04266279540653856</v>
       </c>
       <c r="G112" t="n">
-        <v>0.08223414333797538</v>
+        <v>0.07636467527238727</v>
       </c>
       <c r="H112" t="n">
-        <v>92.75376250983322</v>
+        <v>78.99594844805577</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.03369441758879654</v>
       </c>
       <c r="G113" t="n">
-        <v>0.08987795472539145</v>
+        <v>0.06282047775828825</v>
       </c>
       <c r="H113" t="n">
-        <v>166.7443486403399</v>
+        <v>86.44179734739261</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>